--- a/biology/Médecine/Jean-Pierre_Lhomme/Jean-Pierre_Lhomme.xlsx
+++ b/biology/Médecine/Jean-Pierre_Lhomme/Jean-Pierre_Lhomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Lhomme, né le 4 novembre 1948 à Château-Renard[1] (Loiret) et mort le 15 août 2017[2] à Paris[1], est un médecin et militant associatif français.
-Il a notamment fondé l'association Gaïa et a été vice-président de Médecins du monde[2]. Engagé dans la lutte pour la prévention des risques chez les usagers de drogue, il a été l'un des promoteurs de la salle de consommation à moindre risque (usuellement dénommée « salle de shoot ») de la rue Ambroise-Paré à Paris[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Lhomme, né le 4 novembre 1948 à Château-Renard (Loiret) et mort le 15 août 2017 à Paris, est un médecin et militant associatif français.
+Il a notamment fondé l'association Gaïa et a été vice-président de Médecins du monde. Engagé dans la lutte pour la prévention des risques chez les usagers de drogue, il a été l'un des promoteurs de la salle de consommation à moindre risque (usuellement dénommée « salle de shoot ») de la rue Ambroise-Paré à Paris.
 </t>
         </is>
       </c>
